--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nussa\Documents\Personal\data-driven cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766FC93-3FB0-418F-AD3B-A02CC1420761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18EE0C-7960-49E5-8759-E5377670D320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>what</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Oct. 2019 - present</t>
+  </si>
+  <si>
+    <t>First Class Honours</t>
+  </si>
+  <si>
+    <t>GPA: 4.0 (Equivalent to a British Masters degree with Distinction)</t>
+  </si>
+  <si>
+    <t>GPA: 1.4 (Equivalent to a British Masters degree with Distinction)</t>
   </si>
 </sst>
 </file>
@@ -935,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,40 +1010,55 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
